--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.79362521217133</v>
+        <v>25.79362521217135</v>
       </c>
       <c r="C2">
-        <v>22.56793610211529</v>
+        <v>22.56793610211534</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.10395958441509</v>
+        <v>12.10395958441511</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.77330961006756</v>
+        <v>34.77330961006741</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.40435044541788</v>
+        <v>17.40435044541789</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86569805968167</v>
+        <v>23.86569805968159</v>
       </c>
       <c r="C3">
-        <v>20.85531307737206</v>
+        <v>20.85531307737196</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.18575939478174</v>
+        <v>11.18575939478179</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.83074901351944</v>
+        <v>32.83074901351933</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.09459804573062</v>
+        <v>16.09459804573058</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63244556138437</v>
+        <v>22.63244556138443</v>
       </c>
       <c r="C4">
-        <v>19.76249331806079</v>
+        <v>19.76249331806087</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.60012726940846</v>
+        <v>10.60012726940847</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.63234668139479</v>
+        <v>31.63234668139491</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.25893954773461</v>
+        <v>15.25893954773466</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.11691778447459</v>
+        <v>22.11691778447463</v>
       </c>
       <c r="C5">
-        <v>19.30628114628423</v>
+        <v>19.30628114628425</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.3557028391303</v>
+        <v>10.35570283913025</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.14245548801319</v>
+        <v>31.14245548801315</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.91009511424793</v>
+        <v>14.91009511424792</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.0305175341497</v>
+        <v>22.03051753414979</v>
       </c>
       <c r="C6">
-        <v>19.22985680745227</v>
+        <v>19.22985680745219</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31476002200982</v>
+        <v>10.31476002200989</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.06101666065715</v>
+        <v>31.06101666065702</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.85165737225167</v>
+        <v>14.85165737225166</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62554612172957</v>
+        <v>22.62554612172955</v>
       </c>
       <c r="C7">
-        <v>19.75638535258761</v>
+        <v>19.75638535258743</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.59685460298549</v>
+        <v>10.59685460298547</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.62574607293546</v>
+        <v>31.62574607293541</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.25426903241943</v>
+        <v>15.25426903241941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13881477114325</v>
+        <v>25.13881477114329</v>
       </c>
       <c r="C8">
-        <v>21.98566416330208</v>
+        <v>21.98566416330214</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.7917207452303</v>
+        <v>11.79172074523029</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.10457332214384</v>
+        <v>34.1045733221437</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.70211391188064</v>
+        <v>29.70211391188072</v>
       </c>
       <c r="C9">
-        <v>26.05654972571981</v>
+        <v>26.0565497257199</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.97618823274192</v>
+        <v>13.97618823274197</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.93523177484165</v>
+        <v>38.93523177484188</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.07318816397284</v>
+        <v>20.07318816397287</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.87867269621007</v>
+        <v>32.87867269621001</v>
       </c>
       <c r="C10">
-        <v>28.90934092334363</v>
+        <v>28.90934092334352</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.50932064792059</v>
+        <v>15.50932064792054</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.50334231864518</v>
+        <v>42.50334231864503</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.25681186724186</v>
+        <v>22.25681186724179</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.29911963600996</v>
+        <v>34.29911963601</v>
       </c>
       <c r="C11">
-        <v>30.1904214774598</v>
+        <v>30.19042147745999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.19848549127076</v>
+        <v>16.19848549127085</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44.14503876571679</v>
+        <v>44.14503876571681</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.23782082546231</v>
+        <v>23.23782082546244</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.83495339951866</v>
+        <v>34.83495339951858</v>
       </c>
       <c r="C12">
-        <v>30.67458796413366</v>
+        <v>30.67458796413363</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.45906413496141</v>
+        <v>16.45906413496138</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.71961594891693</v>
+        <v>34.71961594891686</v>
       </c>
       <c r="C13">
-        <v>30.57032925447289</v>
+        <v>30.5703292544729</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.40294644760057</v>
+        <v>16.40294644760051</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.52879713113072</v>
+        <v>23.52879713113066</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.34323445192913</v>
+        <v>34.34323445192922</v>
       </c>
       <c r="C14">
-        <v>30.2302635859077</v>
+        <v>30.23026358590775</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.21992604195387</v>
+        <v>16.21992604195383</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44.1964471505642</v>
+        <v>44.19644715056425</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.11247202424968</v>
+        <v>34.11247202424966</v>
       </c>
       <c r="C15">
-        <v>30.02188892814679</v>
+        <v>30.02188892814666</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.10779663516854</v>
+        <v>16.10779663516857</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.92780830891049</v>
+        <v>43.92780830891039</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.10874785675925</v>
+        <v>23.10874785675921</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.7854665233727</v>
+        <v>32.78546652337255</v>
       </c>
       <c r="C16">
-        <v>28.82539945232707</v>
+        <v>28.82539945232713</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.46417936294294</v>
+        <v>15.46417936294291</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.39656401084556</v>
+        <v>42.39656401084527</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.19254203518364</v>
+        <v>22.19254203518361</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.96603674334269</v>
+        <v>31.96603674334268</v>
       </c>
       <c r="C17">
-        <v>28.08804420203652</v>
+        <v>28.08804420203649</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.06773106488912</v>
+        <v>15.06773106488906</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.46302412795539</v>
+        <v>41.4630241279552</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.62803506250063</v>
+        <v>21.62803506250058</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.49230195834442</v>
+        <v>31.49230195834439</v>
       </c>
       <c r="C18">
-        <v>27.66226376994369</v>
+        <v>27.66226376994372</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.83886922072822</v>
+        <v>14.8388692207282</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.92768919866215</v>
+        <v>40.92768919866208</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.30210401653589</v>
+        <v>21.3021040165359</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.33144845572614</v>
+        <v>31.33144845572605</v>
       </c>
       <c r="C19">
-        <v>27.51777599867257</v>
+        <v>27.51777599867256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.76121591948892</v>
+        <v>14.76121591948895</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.74666627391506</v>
+        <v>40.746666273915</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.19150631238506</v>
+        <v>21.19150631238508</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.05350739083856</v>
+        <v>32.05350739083852</v>
       </c>
       <c r="C20">
-        <v>28.16670074710793</v>
+        <v>28.16670074710783</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.11001496763807</v>
+        <v>15.11001496763804</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.56222320696322</v>
+        <v>41.56222320696308</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.6882490440856</v>
+        <v>21.68824904408552</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.4538290406969</v>
+        <v>34.45382904069696</v>
       </c>
       <c r="C21">
-        <v>30.33016153793609</v>
+        <v>30.33016153793605</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.27368687826948</v>
+        <v>16.27368687826946</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44.32543550903173</v>
+        <v>44.32543550903178</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.34484652352885</v>
+        <v>23.34484652352883</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.01156446013291</v>
+        <v>36.0115644601329</v>
       </c>
       <c r="C22">
-        <v>31.73953389371345</v>
+        <v>31.73953389371349</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.03245496337886</v>
+        <v>17.03245496337888</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.18057970400237</v>
+        <v>46.18057970400261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.18058579689125</v>
+        <v>35.18058579689131</v>
       </c>
       <c r="C23">
-        <v>30.98716154192769</v>
+        <v>30.98716154192772</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.62732676081039</v>
+        <v>16.62732676081037</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45.17688751996106</v>
+        <v>45.1768875199612</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.01397022065643</v>
+        <v>32.0139702206563</v>
       </c>
       <c r="C24">
-        <v>28.13114603631143</v>
+        <v>28.13114603631113</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.09090139539074</v>
+        <v>15.09090139539081</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.51737116158852</v>
+        <v>41.51737116158834</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.66103070832582</v>
+        <v>21.66103070832578</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.50243585578576</v>
+        <v>28.50243585578561</v>
       </c>
       <c r="C25">
-        <v>24.98330573587811</v>
+        <v>24.98330573587786</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>13.39992530150206</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.62874919934923</v>
+        <v>37.62874919934877</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.25199058343125</v>
+        <v>19.25199058343116</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.79362521217135</v>
+        <v>25.79362521217133</v>
       </c>
       <c r="C2">
-        <v>22.56793610211534</v>
+        <v>22.56793610211529</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.10395958441511</v>
+        <v>12.10395958441509</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.77330961006741</v>
+        <v>34.77330961006756</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.40435044541789</v>
+        <v>17.40435044541788</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86569805968159</v>
+        <v>23.86569805968167</v>
       </c>
       <c r="C3">
-        <v>20.85531307737196</v>
+        <v>20.85531307737206</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.18575939478179</v>
+        <v>11.18575939478174</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.83074901351933</v>
+        <v>32.83074901351944</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.09459804573058</v>
+        <v>16.09459804573062</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63244556138443</v>
+        <v>22.63244556138437</v>
       </c>
       <c r="C4">
-        <v>19.76249331806087</v>
+        <v>19.76249331806079</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.60012726940847</v>
+        <v>10.60012726940846</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.63234668139491</v>
+        <v>31.63234668139479</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.25893954773466</v>
+        <v>15.25893954773461</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.11691778447463</v>
+        <v>22.11691778447459</v>
       </c>
       <c r="C5">
-        <v>19.30628114628425</v>
+        <v>19.30628114628423</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.35570283913025</v>
+        <v>10.3557028391303</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.14245548801315</v>
+        <v>31.14245548801319</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.91009511424792</v>
+        <v>14.91009511424793</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03051753414979</v>
+        <v>22.0305175341497</v>
       </c>
       <c r="C6">
-        <v>19.22985680745219</v>
+        <v>19.22985680745227</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31476002200989</v>
+        <v>10.31476002200982</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.06101666065702</v>
+        <v>31.06101666065715</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.85165737225166</v>
+        <v>14.85165737225167</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62554612172955</v>
+        <v>22.62554612172957</v>
       </c>
       <c r="C7">
-        <v>19.75638535258743</v>
+        <v>19.75638535258761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.59685460298547</v>
+        <v>10.59685460298549</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.62574607293541</v>
+        <v>31.62574607293546</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.25426903241941</v>
+        <v>15.25426903241943</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13881477114329</v>
+        <v>25.13881477114325</v>
       </c>
       <c r="C8">
-        <v>21.98566416330214</v>
+        <v>21.98566416330208</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.79172074523029</v>
+        <v>11.7917207452303</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.1045733221437</v>
+        <v>34.10457332214384</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.70211391188072</v>
+        <v>29.70211391188064</v>
       </c>
       <c r="C9">
-        <v>26.0565497257199</v>
+        <v>26.05654972571981</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.97618823274197</v>
+        <v>13.97618823274192</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.93523177484188</v>
+        <v>38.93523177484165</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.07318816397287</v>
+        <v>20.07318816397284</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.87867269621001</v>
+        <v>32.87867269621007</v>
       </c>
       <c r="C10">
-        <v>28.90934092334352</v>
+        <v>28.90934092334363</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.50932064792054</v>
+        <v>15.50932064792059</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.50334231864503</v>
+        <v>42.50334231864518</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.25681186724179</v>
+        <v>22.25681186724186</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.29911963601</v>
+        <v>34.29911963600996</v>
       </c>
       <c r="C11">
-        <v>30.19042147745999</v>
+        <v>30.1904214774598</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.19848549127085</v>
+        <v>16.19848549127076</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44.14503876571681</v>
+        <v>44.14503876571679</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.23782082546244</v>
+        <v>23.23782082546231</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.83495339951858</v>
+        <v>34.83495339951866</v>
       </c>
       <c r="C12">
-        <v>30.67458796413363</v>
+        <v>30.67458796413366</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.45906413496138</v>
+        <v>16.45906413496141</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.71961594891686</v>
+        <v>34.71961594891693</v>
       </c>
       <c r="C13">
-        <v>30.5703292544729</v>
+        <v>30.57032925447289</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.40294644760051</v>
+        <v>16.40294644760057</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.52879713113066</v>
+        <v>23.52879713113072</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.34323445192922</v>
+        <v>34.34323445192913</v>
       </c>
       <c r="C14">
-        <v>30.23026358590775</v>
+        <v>30.2302635859077</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.21992604195383</v>
+        <v>16.21992604195387</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503958</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44.19644715056425</v>
+        <v>44.1964471505642</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.11247202424966</v>
+        <v>34.11247202424968</v>
       </c>
       <c r="C15">
-        <v>30.02188892814666</v>
+        <v>30.02188892814679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.10779663516857</v>
+        <v>16.10779663516854</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.92780830891039</v>
+        <v>43.92780830891049</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.10874785675921</v>
+        <v>23.10874785675925</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.78546652337255</v>
+        <v>32.7854665233727</v>
       </c>
       <c r="C16">
-        <v>28.82539945232713</v>
+        <v>28.82539945232707</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.46417936294291</v>
+        <v>15.46417936294294</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.39656401084527</v>
+        <v>42.39656401084556</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.19254203518361</v>
+        <v>22.19254203518364</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.96603674334268</v>
+        <v>31.96603674334269</v>
       </c>
       <c r="C17">
-        <v>28.08804420203649</v>
+        <v>28.08804420203652</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.06773106488906</v>
+        <v>15.06773106488912</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.4630241279552</v>
+        <v>41.46302412795539</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.62803506250058</v>
+        <v>21.62803506250063</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.49230195834439</v>
+        <v>31.49230195834442</v>
       </c>
       <c r="C18">
-        <v>27.66226376994372</v>
+        <v>27.66226376994369</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.8388692207282</v>
+        <v>14.83886922072822</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.92768919866208</v>
+        <v>40.92768919866215</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.3021040165359</v>
+        <v>21.30210401653589</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.33144845572605</v>
+        <v>31.33144845572614</v>
       </c>
       <c r="C19">
-        <v>27.51777599867256</v>
+        <v>27.51777599867257</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.76121591948895</v>
+        <v>14.76121591948892</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.746666273915</v>
+        <v>40.74666627391506</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.19150631238508</v>
+        <v>21.19150631238506</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.05350739083852</v>
+        <v>32.05350739083856</v>
       </c>
       <c r="C20">
-        <v>28.16670074710783</v>
+        <v>28.16670074710793</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.11001496763804</v>
+        <v>15.11001496763807</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.56222320696308</v>
+        <v>41.56222320696322</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.68824904408552</v>
+        <v>21.6882490440856</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.45382904069696</v>
+        <v>34.4538290406969</v>
       </c>
       <c r="C21">
-        <v>30.33016153793605</v>
+        <v>30.33016153793609</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.27368687826946</v>
+        <v>16.27368687826948</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44.32543550903178</v>
+        <v>44.32543550903173</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.34484652352883</v>
+        <v>23.34484652352885</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.0115644601329</v>
+        <v>36.01156446013291</v>
       </c>
       <c r="C22">
-        <v>31.73953389371349</v>
+        <v>31.73953389371345</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.03245496337888</v>
+        <v>17.03245496337886</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.18057970400261</v>
+        <v>46.18057970400237</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.18058579689131</v>
+        <v>35.18058579689125</v>
       </c>
       <c r="C23">
-        <v>30.98716154192772</v>
+        <v>30.98716154192769</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.62732676081037</v>
+        <v>16.62732676081039</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45.1768875199612</v>
+        <v>45.17688751996106</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.0139702206563</v>
+        <v>32.01397022065643</v>
       </c>
       <c r="C24">
-        <v>28.13114603631113</v>
+        <v>28.13114603631143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.09090139539081</v>
+        <v>15.09090139539074</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.51737116158834</v>
+        <v>41.51737116158852</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.66103070832578</v>
+        <v>21.66103070832582</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.50243585578561</v>
+        <v>28.50243585578576</v>
       </c>
       <c r="C25">
-        <v>24.98330573587786</v>
+        <v>24.98330573587811</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>13.39992530150206</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.62874919934877</v>
+        <v>37.62874919934923</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.25199058343116</v>
+        <v>19.25199058343125</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.79362521217133</v>
+        <v>25.61765027612488</v>
       </c>
       <c r="C2">
-        <v>22.56793610211529</v>
+        <v>22.38007290569205</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.10395958441509</v>
+        <v>12.09138552888183</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.035013705629511</v>
       </c>
       <c r="H2">
-        <v>34.77330961006756</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.88649583346731</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.40435044541788</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.32260995592945</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86569805968167</v>
+        <v>23.70108535667286</v>
       </c>
       <c r="C3">
-        <v>20.85531307737206</v>
+        <v>20.68020790241483</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.18575939478174</v>
+        <v>11.17628715430751</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.051513495989726</v>
       </c>
       <c r="H3">
-        <v>32.83074901351944</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.9807490911144</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.09459804573062</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.01859035082533</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63244556138437</v>
+        <v>22.47510215968572</v>
       </c>
       <c r="C4">
-        <v>19.76249331806079</v>
+        <v>19.59560220343863</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.60012726940846</v>
+        <v>10.59250605118111</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.061720348798022</v>
       </c>
       <c r="H4">
-        <v>31.63234668139479</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.8065243376663</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.25893954773461</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.1864224349532</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.11691778447459</v>
+        <v>21.96262646603068</v>
       </c>
       <c r="C5">
-        <v>19.30628114628423</v>
+        <v>19.14285113596785</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.3557028391303</v>
+        <v>10.34882698571624</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.065907388033078</v>
       </c>
       <c r="H5">
-        <v>31.14245548801319</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31.32689231902462</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.91009511424793</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.83899993217389</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.0305175341497</v>
+        <v>21.87673890633675</v>
       </c>
       <c r="C6">
-        <v>19.22985680745227</v>
+        <v>19.06700892139843</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31476002200982</v>
+        <v>10.30800751033683</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.06660454385215</v>
       </c>
       <c r="H6">
-        <v>31.06101666065715</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>31.24718176442919</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.85165737225167</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.78079844669627</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62554612172957</v>
+        <v>22.46824349668219</v>
       </c>
       <c r="C7">
-        <v>19.75638535258761</v>
+        <v>19.58954043066881</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.59685460298549</v>
+        <v>10.58924346792134</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.061776694114621</v>
       </c>
       <c r="H7">
-        <v>31.62574607293546</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>31.80006043222949</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.25426903241943</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.18177109020619</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13881477114325</v>
+        <v>24.96670658502448</v>
       </c>
       <c r="C8">
-        <v>21.98566416330208</v>
+        <v>21.80213184302624</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.7917207452303</v>
+        <v>11.78023033031799</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.040692602376264</v>
       </c>
       <c r="H8">
-        <v>34.10457332214384</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.23013499352673</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.95902548283158</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.8792723384827</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.70211391188064</v>
+        <v>29.50252354505306</v>
       </c>
       <c r="C9">
-        <v>26.05654972571981</v>
+        <v>25.84247032905667</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.97618823274192</v>
+        <v>13.95639875148892</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.999491420731566</v>
       </c>
       <c r="H9">
-        <v>38.93523177484165</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>38.9768226115159</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.07318816397284</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.97857427430602</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.87867269621007</v>
+        <v>32.65857478549521</v>
       </c>
       <c r="C10">
-        <v>28.90934092334363</v>
+        <v>28.67280281978847</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.50932064792059</v>
+        <v>15.48249715773213</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.968526763554933</v>
       </c>
       <c r="H10">
-        <v>42.50334231864518</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.48856811685652</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.25681186724186</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.15013272983319</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.29911963600996</v>
+        <v>34.06924259299987</v>
       </c>
       <c r="C11">
-        <v>30.1904214774598</v>
+        <v>29.94326731161322</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.19848549127076</v>
+        <v>16.16808161376079</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.95405837132886</v>
       </c>
       <c r="H11">
-        <v>44.14503876571679</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>44.10518326815638</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.23782082546231</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.12514508020229</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.83495339951866</v>
+        <v>34.60126357207051</v>
       </c>
       <c r="C12">
-        <v>30.67458796413366</v>
+        <v>30.42331021744533</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.45906413496141</v>
+        <v>16.42722761092823</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.948499172124268</v>
       </c>
       <c r="H12">
-        <v>44.77113113576298</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.72178744558818</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.60865481918427</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.49360312676854</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.71961594891693</v>
+        <v>34.48675303336108</v>
       </c>
       <c r="C13">
-        <v>30.57032925447289</v>
+        <v>30.31994510144941</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.40294644760057</v>
+        <v>16.37142233051496</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.949700492934767</v>
       </c>
       <c r="H13">
-        <v>44.63606037109062</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.58876109254078</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.52879713113072</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.41426246139789</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.34323445192913</v>
+        <v>34.1130462387748</v>
       </c>
       <c r="C14">
-        <v>30.2302635859077</v>
+        <v>29.98277256440216</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.21992604195387</v>
+        <v>16.18940599623413</v>
       </c>
       <c r="F14">
         <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.953602791306303</v>
       </c>
       <c r="H14">
-        <v>44.1964471505642</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>44.15581135208599</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.26833519284273</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.15546631156463</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.11247202424968</v>
+        <v>33.88390627229789</v>
       </c>
       <c r="C15">
-        <v>30.02188892814679</v>
+        <v>29.77615492547232</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.10779663516854</v>
+        <v>16.07788080908084</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.955981736898557</v>
       </c>
       <c r="H15">
-        <v>43.92780830891049</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.8912528298549</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.10874785675925</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>22.99688446837336</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.7854665233727</v>
+        <v>32.56599513183062</v>
       </c>
       <c r="C16">
-        <v>28.82539945232707</v>
+        <v>28.58954348474468</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.46417936294294</v>
+        <v>15.43758048960675</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.969462587110415</v>
       </c>
       <c r="H16">
-        <v>42.39656401084556</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.38343462572005</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.19254203518364</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.08624207766074</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.96603674334269</v>
+        <v>31.75200151435617</v>
       </c>
       <c r="C17">
-        <v>28.08804420203652</v>
+        <v>27.8581173174875</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.06773106488912</v>
+        <v>15.04305618349666</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.977618567243741</v>
       </c>
       <c r="H17">
-        <v>41.46302412795539</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.46436534322096</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.62803506250063</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.52499849553682</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.49230195834442</v>
+        <v>31.28135445429837</v>
       </c>
       <c r="C18">
-        <v>27.66226376994369</v>
+        <v>27.4357129620521</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.83886922072822</v>
+        <v>14.81526683929142</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.982275506994134</v>
       </c>
       <c r="H18">
-        <v>40.92768919866215</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.93741148055641</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.30210401653589</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.20089909620968</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.33144845572614</v>
+        <v>31.12154084491997</v>
       </c>
       <c r="C19">
-        <v>27.51777599867257</v>
+        <v>27.29236358048398</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.76121591948892</v>
+        <v>14.73797135706855</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.983847072536173</v>
       </c>
       <c r="H19">
-        <v>40.74666627391506</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.75923801133481</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.19150631238506</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>21.09091456586517</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.05350739083856</v>
+        <v>31.8388977902284</v>
       </c>
       <c r="C20">
-        <v>28.16670074710793</v>
+        <v>27.93614652637215</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.11001496763807</v>
+        <v>15.08513894151274</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.976754048867125</v>
       </c>
       <c r="H20">
-        <v>41.56222320696322</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.56201844745871</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.6882490440856</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.58486997602463</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.4538290406969</v>
+        <v>34.22285861329469</v>
       </c>
       <c r="C21">
-        <v>30.33016153793609</v>
+        <v>30.08182398728338</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.27368687826948</v>
+        <v>16.24287421571291</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.952459006620792</v>
       </c>
       <c r="H21">
-        <v>44.32543550903173</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>44.28284290749176</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.34484652352885</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.23149152982495</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.01156446013291</v>
+        <v>35.76922863530073</v>
       </c>
       <c r="C22">
-        <v>31.73953389371345</v>
+        <v>31.47893641004129</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.03245496337886</v>
+        <v>16.99729738049259</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.9360955688575</v>
       </c>
       <c r="H22">
-        <v>46.18057970400237</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>46.08807510955559</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.42447381457325</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.30396123070169</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.18058579689125</v>
+        <v>34.94439672441217</v>
       </c>
       <c r="C23">
-        <v>30.98716154192769</v>
+        <v>30.73318542092353</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.62732676081039</v>
+        <v>16.59454039762043</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.944883652300888</v>
       </c>
       <c r="H23">
-        <v>45.17688751996106</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>45.12140905229005</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.84808474212581</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.73146470700224</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.01397022065643</v>
+        <v>31.7996204074041</v>
       </c>
       <c r="C24">
-        <v>28.13114603631143</v>
+        <v>27.90087553266052</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.09090139539074</v>
+        <v>15.06611641000049</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.977144995606988</v>
       </c>
       <c r="H24">
-        <v>41.51737116158852</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.5178651400023</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.66103070832582</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.55780662143552</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.50243585578576</v>
+        <v>28.31023041012321</v>
       </c>
       <c r="C25">
-        <v>24.98330573587811</v>
+        <v>24.77738241455314</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.39992530150206</v>
+        <v>13.38249906712984</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.010693532882001</v>
       </c>
       <c r="H25">
-        <v>37.62874919934923</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.69196010051131</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.25199058343125</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>19.16153024958031</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.61765027612488</v>
+        <v>27.59922305349074</v>
       </c>
       <c r="C2">
-        <v>22.38007290569205</v>
+        <v>20.82781974226847</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.09138552888183</v>
+        <v>30.3404534920274</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.035013705629511</v>
+        <v>2.029701668240195</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.88649583346731</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.63438920213818</v>
       </c>
       <c r="L2">
-        <v>17.32260995592945</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.01504795951817</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70108535667286</v>
+        <v>25.49873156116919</v>
       </c>
       <c r="C3">
-        <v>20.68020790241483</v>
+        <v>19.2225772850229</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.17628715430751</v>
+        <v>27.95776008896198</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.051513495989726</v>
+        <v>2.046512745256362</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.9807490911144</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.7576134610838</v>
       </c>
       <c r="L3">
-        <v>16.01859035082533</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.06785634292624</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.47510215968572</v>
+        <v>24.16080263250959</v>
       </c>
       <c r="C4">
-        <v>19.59560220343863</v>
+        <v>18.20148310213798</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.59250605118111</v>
+        <v>26.44958617179065</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.061720348798022</v>
+        <v>2.056873211300085</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.8065243376663</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.5615356063878</v>
       </c>
       <c r="L4">
-        <v>15.1864224349532</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.10915680348911</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.96262646603068</v>
+        <v>23.6028320952857</v>
       </c>
       <c r="C5">
-        <v>19.14285113596785</v>
+        <v>17.77589021216561</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.34882698571624</v>
+        <v>25.82254734622882</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.065907388033078</v>
+        <v>2.061115150284074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.32689231902462</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.06250996125404</v>
       </c>
       <c r="L5">
-        <v>14.83899993217389</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.12800494606985</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.87673890633675</v>
+        <v>23.50939475585768</v>
       </c>
       <c r="C6">
-        <v>19.06700892139843</v>
+        <v>17.70463257720633</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.30800751033683</v>
+        <v>25.71764762487054</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.06660454385215</v>
+        <v>2.061821000753547</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.24718176442919</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.97892915708958</v>
       </c>
       <c r="L6">
-        <v>14.78079844669627</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.13125082461642</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.46824349668219</v>
+        <v>24.15333004365105</v>
       </c>
       <c r="C7">
-        <v>19.58954043066881</v>
+        <v>18.19578252283236</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.58924346792134</v>
+        <v>26.44118141665961</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.061776694114621</v>
+        <v>2.056930326171148</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.80006043222949</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.5548533544485</v>
       </c>
       <c r="L7">
-        <v>15.18177109020619</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.10940308777703</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.96670658502448</v>
+        <v>26.88456923279135</v>
       </c>
       <c r="C8">
-        <v>21.80213184302624</v>
+        <v>20.28132383218081</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.78023033031799</v>
+        <v>29.52757552705571</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.040692602376264</v>
+        <v>2.035496860907051</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.23013499352673</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.99595299573808</v>
       </c>
       <c r="L8">
-        <v>16.8792723384827</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.03127566213019</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.50252354505306</v>
+        <v>31.89285113324371</v>
       </c>
       <c r="C9">
-        <v>25.84247032905667</v>
+        <v>24.12067576682549</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.95639875148892</v>
+        <v>35.28095699111357</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>1.999491420731566</v>
+        <v>1.993206324300539</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.9768226115159</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28.46942103201194</v>
       </c>
       <c r="L9">
-        <v>19.97857427430602</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>13.96000467188711</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.65857478549521</v>
+        <v>35.42268575068506</v>
       </c>
       <c r="C10">
-        <v>28.67280281978847</v>
+        <v>26.84352515587805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.48249715773213</v>
+        <v>39.43238398425989</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>1.968526763554933</v>
+        <v>1.960977019049723</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.48856811685652</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>31.62355623218453</v>
       </c>
       <c r="L10">
-        <v>22.15013272983319</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.97744274454674</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.06924259299987</v>
+        <v>37.01538130433858</v>
       </c>
       <c r="C11">
-        <v>29.94326731161322</v>
+        <v>28.07795714940757</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.16808161376079</v>
+        <v>41.33855857819787</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>1.95405837132886</v>
+        <v>1.945750954771172</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.10518326815638</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>33.04775430865688</v>
       </c>
       <c r="L11">
-        <v>23.12514508020229</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>14.00648873377444</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.60126357207051</v>
+        <v>37.61886550114003</v>
       </c>
       <c r="C12">
-        <v>30.42331021744533</v>
+        <v>28.54677290504311</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.42722761092823</v>
+        <v>42.06695652645382</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.948499172124268</v>
+        <v>1.939867616573513</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.72178744558818</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>33.5876186456313</v>
       </c>
       <c r="L12">
-        <v>23.49360312676854</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>14.0211919033726</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.48675303336108</v>
+        <v>37.48883473675649</v>
       </c>
       <c r="C13">
-        <v>30.31994510144941</v>
+        <v>28.44570622005048</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.37142233051496</v>
+        <v>41.90971153070032</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>1.949700492934767</v>
+        <v>1.94114063304001</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.58876109254078</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.47128439678659</v>
       </c>
       <c r="L13">
-        <v>23.41426246139789</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>14.01784789551178</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.1130462387748</v>
+        <v>37.06500762876983</v>
       </c>
       <c r="C14">
-        <v>29.98277256440216</v>
+        <v>28.11648606378427</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.18940599623413</v>
+        <v>41.39832461314575</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.1916763750395</v>
       </c>
       <c r="G14">
-        <v>1.953602791306303</v>
+        <v>1.945269534887739</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.15581135208599</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>33.09214396069929</v>
       </c>
       <c r="L14">
-        <v>23.15546631156463</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>14.00761964110746</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.88390627229789</v>
+        <v>36.80552725041381</v>
       </c>
       <c r="C15">
-        <v>29.77615492547232</v>
+        <v>27.91507572223308</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.07788080908084</v>
+        <v>41.08608387199727</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154521</v>
       </c>
       <c r="G15">
-        <v>1.955981736898557</v>
+        <v>1.94778202213556</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.8912528298549</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.8600540866892</v>
       </c>
       <c r="L15">
-        <v>22.99688446837336</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>14.00185990357829</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.56599513183062</v>
+        <v>35.31851333072459</v>
       </c>
       <c r="C16">
-        <v>28.58954348474468</v>
+        <v>26.76292235536315</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.43758048960675</v>
+        <v>39.3084818789193</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.969462587110415</v>
+        <v>1.96195785435582</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.38343462572005</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.53043148289002</v>
       </c>
       <c r="L16">
-        <v>22.08624207766074</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.97602247406466</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.75200151435617</v>
+        <v>34.40433187315695</v>
       </c>
       <c r="C17">
-        <v>27.8581173174875</v>
+        <v>26.0562595431184</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.04305618349666</v>
+        <v>38.22498782956409</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>1.977618567243741</v>
+        <v>1.970487039228963</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.46436534322096</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>30.7133232348537</v>
       </c>
       <c r="L17">
-        <v>21.52499849553682</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.96600169898412</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.28135445429837</v>
+        <v>33.87712508082337</v>
       </c>
       <c r="C18">
-        <v>27.4357129620521</v>
+        <v>25.64926395451078</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.81526683929142</v>
+        <v>37.60315183828222</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239621</v>
       </c>
       <c r="G18">
-        <v>1.982275506994134</v>
+        <v>1.975342338498725</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.93741148055641</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>30.24218934122607</v>
       </c>
       <c r="L18">
-        <v>21.20089909620968</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.96217667067838</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.12154084491997</v>
+        <v>33.69832469498751</v>
       </c>
       <c r="C19">
-        <v>27.29236358048398</v>
+        <v>25.51131845698339</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.73797135706855</v>
+        <v>37.3927399753951</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>1.983847072536173</v>
+        <v>1.976978528362297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.75923801133481</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>30.08241939393259</v>
       </c>
       <c r="L19">
-        <v>21.09091456586517</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.96119697203829</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.8388977902284</v>
+        <v>34.501778180053</v>
       </c>
       <c r="C20">
-        <v>27.93614652637215</v>
+        <v>26.13152869553996</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.08513894151274</v>
+        <v>38.34016163420068</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>1.976754048867125</v>
+        <v>1.96958454419204</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.56201844745871</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>30.80041220053815</v>
       </c>
       <c r="L20">
-        <v>21.58486997602463</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.96686350506126</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.22285861329469</v>
+        <v>37.18946462736187</v>
       </c>
       <c r="C21">
-        <v>30.08182398728338</v>
+        <v>28.21313019007272</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.24287421571291</v>
+        <v>41.54831402533587</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329779</v>
       </c>
       <c r="G21">
-        <v>1.952459006620792</v>
+        <v>1.944060314579205</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.28284290749176</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.20347188326392</v>
       </c>
       <c r="L21">
-        <v>23.23149152982495</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>14.0105171421627</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.76922863530073</v>
+        <v>38.94976749323389</v>
       </c>
       <c r="C22">
-        <v>31.47893641004129</v>
+        <v>29.58294874746035</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.99729738049259</v>
+        <v>43.68632829017011</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.9360955688575</v>
+        <v>1.926667168182997</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>46.08807510955559</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.77872417779741</v>
       </c>
       <c r="L22">
-        <v>24.30396123070169</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>14.06109863629372</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.94439672441217</v>
+        <v>38.00897595790339</v>
       </c>
       <c r="C23">
-        <v>30.73318542092353</v>
+        <v>28.85016387130892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.59454039762043</v>
+        <v>42.53972496906256</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.0141422503842</v>
       </c>
       <c r="G23">
-        <v>1.944883652300888</v>
+        <v>1.936030656650865</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.12140905229005</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.93667695951842</v>
       </c>
       <c r="L23">
-        <v>23.73146470700224</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>14.03181096577102</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7996204074041</v>
+        <v>34.45772794595007</v>
       </c>
       <c r="C24">
-        <v>27.90087553266052</v>
+        <v>26.09750191162816</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.06611641000049</v>
+        <v>38.28808847978348</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575577</v>
       </c>
       <c r="G24">
-        <v>1.977144995606988</v>
+        <v>1.969992709889427</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.5178651400023</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>30.76104368609731</v>
       </c>
       <c r="L24">
-        <v>21.55780662143552</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.96646789994028</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.31023041012321</v>
+        <v>30.56963210914599</v>
       </c>
       <c r="C25">
-        <v>24.77738241455314</v>
+        <v>23.10392075822284</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.38249906712984</v>
+        <v>33.74704102444802</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>2.010693532882001</v>
+        <v>2.004764385895237</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.69196010051131</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.28751271867634</v>
       </c>
       <c r="L25">
-        <v>19.16153024958031</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.96870860458997</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.59922305349074</v>
+        <v>34.46235564657989</v>
       </c>
       <c r="C2">
-        <v>20.82781974226847</v>
+        <v>27.60204155252937</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.3404534920274</v>
+        <v>31.06455290265118</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.029701668240195</v>
+        <v>1.988554468636684</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.63438920213818</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.01504795951817</v>
+        <v>13.37535986968117</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.49873156116919</v>
+        <v>31.7501930689997</v>
       </c>
       <c r="C3">
-        <v>19.2225772850229</v>
+        <v>25.4062266382904</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.95776008896198</v>
+        <v>28.53301143879696</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.046512745256362</v>
+        <v>2.010023728482052</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.7576134610838</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.06785634292624</v>
+        <v>13.42874316195054</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.16080263250959</v>
+        <v>30.03496449697603</v>
       </c>
       <c r="C4">
-        <v>18.20148310213798</v>
+        <v>24.01981493658733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.44958617179065</v>
+        <v>26.94464520228238</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.056873211300085</v>
+        <v>2.023119275589916</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.5615356063878</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.10915680348911</v>
+        <v>13.47239738988368</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.6028320952857</v>
+        <v>29.32212277458763</v>
       </c>
       <c r="C5">
-        <v>17.77589021216561</v>
+        <v>23.44405242504603</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.82254734622882</v>
+        <v>26.28708785295874</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.061115150284074</v>
+        <v>2.028453588393522</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.06250996125404</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.12800494606985</v>
+        <v>13.49259468439989</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.50939475585768</v>
+        <v>29.20288432182704</v>
       </c>
       <c r="C6">
-        <v>17.70463257720633</v>
+        <v>23.34776505198707</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.71764762487054</v>
+        <v>26.17723492589351</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.061821000753547</v>
+        <v>2.029339718543142</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.97892915708958</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.13125082461642</v>
+        <v>13.49608532759238</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.15333004365105</v>
+        <v>30.02540858955389</v>
       </c>
       <c r="C7">
-        <v>18.19578252283236</v>
+        <v>24.01209510442771</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.44118141665961</v>
+        <v>26.93582086344083</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.056930326171148</v>
+        <v>2.023191201717257</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.5548533544485</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.10940308777703</v>
+        <v>13.47266042066002</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.88456923279135</v>
+        <v>33.53669575066929</v>
       </c>
       <c r="C8">
-        <v>20.28132383218081</v>
+        <v>26.85205848550253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.52757552705571</v>
+        <v>30.19757415254558</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.035496860907051</v>
+        <v>1.99598804875881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.99595299573808</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.03127566213019</v>
+        <v>13.39129323182372</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.89285113324371</v>
+        <v>40.10260017688398</v>
       </c>
       <c r="C9">
-        <v>24.12067576682549</v>
+        <v>32.18729523644259</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.28095699111357</v>
+        <v>36.4263522236876</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>1.993206324300539</v>
+        <v>1.940816236675254</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.46942103201194</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.96000467188711</v>
+        <v>13.33663691073915</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.42268575068506</v>
+        <v>44.88051551688481</v>
       </c>
       <c r="C10">
-        <v>26.84352515587805</v>
+        <v>36.09818962157207</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.43238398425989</v>
+        <v>41.10291085968564</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>1.960977019049723</v>
+        <v>1.89695074627841</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.62355623218453</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.97744274454674</v>
+        <v>13.39531224054706</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.01538130433858</v>
+        <v>47.09772403978249</v>
       </c>
       <c r="C11">
-        <v>28.07795714940757</v>
+        <v>37.92366822731704</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.33855857819787</v>
+        <v>43.3274174110678</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>1.945750954771172</v>
+        <v>1.875469297788415</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.04775430865688</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.00648873377444</v>
+        <v>13.45542236547944</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.61886550114003</v>
+        <v>47.95085038963636</v>
       </c>
       <c r="C12">
-        <v>28.54677290504311</v>
+        <v>38.6281419801008</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.06695652645382</v>
+        <v>44.19421873547189</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.939867616573513</v>
+        <v>1.867006352003488</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.5876186456313</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.0211919033726</v>
+        <v>13.48453557382182</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.48883473675649</v>
+        <v>47.76635829930955</v>
       </c>
       <c r="C13">
-        <v>28.44570622005048</v>
+        <v>38.47569343977348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.90971153070032</v>
+        <v>44.00622315011793</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>1.94114063304001</v>
+        <v>1.868845939100496</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.47128439678659</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.01784789551178</v>
+        <v>13.47795082999899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.06500762876983</v>
+        <v>47.16758604023587</v>
       </c>
       <c r="C14">
-        <v>28.11648606378427</v>
+        <v>37.98131190383335</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.39832461314575</v>
+        <v>43.39816028666048</v>
       </c>
       <c r="F14">
-        <v>39.1916763750395</v>
+        <v>39.19167637503951</v>
       </c>
       <c r="G14">
-        <v>1.945269534887739</v>
+        <v>1.874780446225677</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.09214396069929</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.00761964110746</v>
+        <v>13.45767891581203</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.80552725041381</v>
+        <v>46.8028557697155</v>
       </c>
       <c r="C15">
-        <v>27.91507572223308</v>
+        <v>37.68045714968288</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.08608387199727</v>
+        <v>43.02928856114504</v>
       </c>
       <c r="F15">
         <v>38.96319309154521</v>
       </c>
       <c r="G15">
-        <v>1.94778202213556</v>
+        <v>1.878368597656635</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.8600540866892</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.00185990357829</v>
+        <v>13.44614627709017</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.31851333072459</v>
+        <v>44.73703977462885</v>
       </c>
       <c r="C16">
-        <v>26.76292235536315</v>
+        <v>35.98031517186872</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.3084818789193</v>
+        <v>40.96026961577872</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
       <c r="G16">
-        <v>1.96195785435582</v>
+        <v>1.898315700555905</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.53043148289002</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.97602247406466</v>
+        <v>13.39217418217957</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.40433187315695</v>
+        <v>43.48511287570305</v>
       </c>
       <c r="C17">
-        <v>26.0562595431184</v>
+        <v>34.95299295265027</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.22498782956409</v>
+        <v>39.72184733720949</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>1.970487039228963</v>
+        <v>1.910098614298512</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.7133232348537</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.96600169898412</v>
+        <v>13.36853686892302</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.87712508082337</v>
+        <v>42.76858236304787</v>
       </c>
       <c r="C18">
-        <v>25.64926395451078</v>
+        <v>34.36595592284745</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.60315183828222</v>
+        <v>39.017848035964</v>
       </c>
       <c r="F18">
-        <v>36.31710943239621</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>1.975342338498725</v>
+        <v>1.916740707365036</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.24218934122607</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.96217667067838</v>
+        <v>13.35796724436777</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.69832469498751</v>
+        <v>42.52641580543025</v>
       </c>
       <c r="C19">
-        <v>25.51131845698339</v>
+        <v>34.16770315067694</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.3927399753951</v>
+        <v>38.78067054949275</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>1.976978528362297</v>
+        <v>1.918968957289971</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.08241939393259</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.96119697203829</v>
+        <v>13.35487087100008</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.501778180053</v>
+        <v>43.61797362823908</v>
       </c>
       <c r="C20">
-        <v>26.13152869553996</v>
+        <v>35.06191654654387</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.34016163420068</v>
+        <v>39.8527595400121</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>1.96958454419204</v>
+        <v>1.908858921145784</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.80041220053815</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.96686350506126</v>
+        <v>13.37073072133083</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.18946462736187</v>
+        <v>47.34301751126029</v>
       </c>
       <c r="C21">
-        <v>28.21313019007272</v>
+        <v>38.12609694071725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.54831402533587</v>
+        <v>43.57598901342365</v>
       </c>
       <c r="F21">
-        <v>39.30090300329779</v>
+        <v>39.30090300329777</v>
       </c>
       <c r="G21">
-        <v>1.944060314579205</v>
+        <v>1.873047389606894</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.20347188326392</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.0105171421627</v>
+        <v>13.46344513701267</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.94976749323389</v>
+        <v>49.86284863743678</v>
       </c>
       <c r="C22">
-        <v>29.58294874746035</v>
+        <v>40.21159143364949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.68632829017011</v>
+        <v>46.16148159110023</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.926667168182997</v>
+        <v>1.847630058185404</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.77872417779741</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.06109863629372</v>
+        <v>13.56237475322284</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.00897595790339</v>
+        <v>48.50669031787861</v>
       </c>
       <c r="C23">
-        <v>28.85016387130892</v>
+        <v>39.08779435041687</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.53972496906256</v>
+        <v>44.76249719428404</v>
       </c>
       <c r="F23">
-        <v>40.0141422503842</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>1.936030656650865</v>
+        <v>1.861432284404527</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.93667695951842</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.03181096577102</v>
+        <v>13.50534901855421</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.45772794595007</v>
+        <v>43.55789774567184</v>
       </c>
       <c r="C24">
-        <v>26.09750191162816</v>
+        <v>35.01266146784285</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.28808847978348</v>
+        <v>39.79354996087719</v>
       </c>
       <c r="F24">
-        <v>36.85121910575577</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>1.969992709889427</v>
+        <v>1.909419790394894</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.76104368609731</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.96646789994028</v>
+        <v>13.36972958071015</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.56963210914599</v>
+        <v>38.34796464742543</v>
       </c>
       <c r="C25">
-        <v>23.10392075822284</v>
+        <v>30.75768564846764</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.74704102444802</v>
+        <v>34.74230646519086</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127055</v>
       </c>
       <c r="G25">
-        <v>2.004764385895237</v>
+        <v>1.956124715192274</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.28751271867634</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.96870860458997</v>
+        <v>13.33717622057116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.46235564657989</v>
+        <v>20.91846350703119</v>
       </c>
       <c r="C2">
-        <v>27.60204155252937</v>
+        <v>14.9376749583435</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>31.06455290265118</v>
+        <v>16.4550868695369</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>1.988554468636684</v>
+        <v>3.629624543719184</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.37535986968117</v>
+        <v>18.1777315890429</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.7501930689997</v>
+        <v>20.01735535115251</v>
       </c>
       <c r="C3">
-        <v>25.4062266382904</v>
+        <v>14.05222205956468</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.53301143879696</v>
+        <v>15.5133573386915</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.010023728482052</v>
+        <v>3.635678044690552</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.42874316195054</v>
+        <v>18.19586449334508</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.03496449697603</v>
+        <v>19.45140641590864</v>
       </c>
       <c r="C4">
-        <v>24.01981493658733</v>
+        <v>13.48445925691748</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.94464520228238</v>
+        <v>14.91211500379413</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.023119275589916</v>
+        <v>3.639567762208798</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.47239738988368</v>
+        <v>18.20887109872193</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.32212277458763</v>
+        <v>19.21797740009319</v>
       </c>
       <c r="C5">
-        <v>23.44405242504603</v>
+        <v>13.24725046560427</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.28708785295874</v>
+        <v>14.66158620008865</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993643</v>
       </c>
       <c r="G5">
-        <v>2.028453588393522</v>
+        <v>3.641196585913178</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.49259468439989</v>
+        <v>18.21463764266039</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.20288432182704</v>
+        <v>19.17905967776397</v>
       </c>
       <c r="C6">
-        <v>23.34776505198707</v>
+        <v>13.20751662614565</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.17723492589351</v>
+        <v>14.61966178064999</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551586</v>
       </c>
       <c r="G6">
-        <v>2.029339718543142</v>
+        <v>3.641469700022393</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.49608532759238</v>
+        <v>18.2156231956182</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.02540858955389</v>
+        <v>19.44826910759197</v>
       </c>
       <c r="C7">
-        <v>24.01209510442771</v>
+        <v>13.48128350437767</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.93582086344083</v>
+        <v>14.90875822944741</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.023191201717257</v>
+        <v>3.639589551667163</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.47266042066002</v>
+        <v>18.20894698673534</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.53669575066929</v>
+        <v>20.61060690338662</v>
       </c>
       <c r="C8">
-        <v>26.85205848550253</v>
+        <v>14.63748730653015</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.19757415254558</v>
+        <v>16.13530170532846</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>1.99598804875881</v>
+        <v>3.631676080358685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.39129323182372</v>
+        <v>18.18359224130453</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.10260017688398</v>
+        <v>22.77479932307783</v>
       </c>
       <c r="C9">
-        <v>32.18729523644259</v>
+        <v>16.70624258055679</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.4263522236876</v>
+        <v>18.42966497513565</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>1.940816236675254</v>
+        <v>3.617516841641076</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.33663691073915</v>
+        <v>18.14894610506398</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.88051551688481</v>
+        <v>24.2779365995826</v>
       </c>
       <c r="C10">
-        <v>36.09818962157207</v>
+        <v>18.09762428175459</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>41.10291085968564</v>
+        <v>20.10457653876821</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.89695074627841</v>
+        <v>3.607925082908879</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.39531224054706</v>
+        <v>18.13297830831772</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.09772403978249</v>
+        <v>24.94011825281613</v>
       </c>
       <c r="C11">
-        <v>37.92366822731704</v>
+        <v>18.70166202549446</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43.3274174110678</v>
+        <v>20.82582255864779</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.875469297788415</v>
+        <v>3.603733835850118</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.45542236547944</v>
+        <v>18.127838811344</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.95085038963636</v>
+        <v>25.18757663087733</v>
       </c>
       <c r="C12">
-        <v>38.6281419801008</v>
+        <v>18.92617935517882</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>44.19421873547189</v>
+        <v>21.09313844167677</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>21.6568656903351</v>
       </c>
       <c r="G12">
-        <v>1.867006352003488</v>
+        <v>3.602171161565135</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.48453557382182</v>
+        <v>18.12620345314721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.76635829930955</v>
+        <v>25.13443130556133</v>
       </c>
       <c r="C13">
-        <v>38.47569343977348</v>
+        <v>18.87801396228673</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>44.00622315011793</v>
+        <v>21.0358246087094</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>21.60004134736749</v>
       </c>
       <c r="G13">
-        <v>1.868845939100496</v>
+        <v>3.602506628169308</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.47795082999899</v>
+        <v>18.1265417450479</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.16758604023587</v>
+        <v>24.96054382624261</v>
       </c>
       <c r="C14">
-        <v>37.98131190383335</v>
+        <v>18.72021804320799</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>43.39816028666048</v>
+        <v>20.8479308641777</v>
       </c>
       <c r="F14">
-        <v>39.19167637503951</v>
+        <v>21.41366180504534</v>
       </c>
       <c r="G14">
-        <v>1.874780446225677</v>
+        <v>3.60360478513743</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.45767891581203</v>
+        <v>18.12769800840678</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.8028557697155</v>
+        <v>24.85359845468544</v>
       </c>
       <c r="C15">
-        <v>37.68045714968288</v>
+        <v>18.62301255034317</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>43.02928856114504</v>
+        <v>20.7320859737739</v>
       </c>
       <c r="F15">
-        <v>38.96319309154521</v>
+        <v>21.29868154950791</v>
       </c>
       <c r="G15">
-        <v>1.878368597656635</v>
+        <v>3.604280614834169</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.44614627709017</v>
+        <v>18.1284468965429</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.73703977462885</v>
+        <v>24.23420992984627</v>
       </c>
       <c r="C16">
-        <v>35.98031517186872</v>
+        <v>18.05756161916133</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.96026961577872</v>
+        <v>20.05662671023068</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.898315700555905</v>
+        <v>3.608202429273535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.39217418217957</v>
+        <v>18.13335739232222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.48511287570305</v>
+        <v>23.84855805986709</v>
       </c>
       <c r="C17">
-        <v>34.95299295265027</v>
+        <v>17.70322218638001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.72184733720949</v>
+        <v>19.6318675221266</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.910098614298512</v>
+        <v>3.61065220949227</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.36853686892302</v>
+        <v>18.13691772699663</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.76858236304787</v>
+        <v>23.62471720574018</v>
       </c>
       <c r="C18">
-        <v>34.36595592284745</v>
+        <v>17.49669696214199</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>39.017848035964</v>
+        <v>19.38372558959297</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>1.916740707365036</v>
+        <v>3.6120774737588</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.35796724436777</v>
+        <v>18.13916516482735</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.52641580543025</v>
+        <v>23.54858714657355</v>
       </c>
       <c r="C19">
-        <v>34.16770315067694</v>
+        <v>17.42630631587686</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.78067054949275</v>
+        <v>19.2990495214094</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>1.918968957289971</v>
+        <v>3.612562837442619</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.35487087100008</v>
+        <v>18.13996023161808</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.61797362823908</v>
+        <v>23.88982230921167</v>
       </c>
       <c r="C20">
-        <v>35.06191654654387</v>
+        <v>17.74122408391776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.8527595400121</v>
+        <v>19.67748009911441</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.908858921145784</v>
+        <v>3.610389750031298</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.37073072133083</v>
+        <v>18.13651802381442</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.34301751126029</v>
+        <v>25.01170959201154</v>
       </c>
       <c r="C21">
-        <v>38.12609694071725</v>
+        <v>18.76668143143275</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>43.57598901342365</v>
+        <v>20.90327697741647</v>
       </c>
       <c r="F21">
-        <v>39.30090300329777</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.873047389606894</v>
+        <v>3.603281568279502</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.46344513701267</v>
+        <v>18.12734990605808</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.86284863743678</v>
+        <v>25.72565179819505</v>
       </c>
       <c r="C22">
-        <v>40.21159143364949</v>
+        <v>19.41989667140476</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>46.16148159110023</v>
+        <v>21.67059516751293</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.847630058185404</v>
+        <v>3.598778396662258</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.56237475322284</v>
+        <v>18.12317246442178</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.50669031787861</v>
+        <v>25.34642615550571</v>
       </c>
       <c r="C23">
-        <v>39.08779435041687</v>
+        <v>19.06997500409409</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>44.76249719428404</v>
+        <v>21.26414168747459</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.861432284404527</v>
+        <v>3.601168886836671</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.50534901855421</v>
+        <v>18.12523422879307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.55789774567184</v>
+        <v>23.87117334464579</v>
       </c>
       <c r="C24">
-        <v>35.01266146784285</v>
+        <v>17.72405217609973</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.79354996087719</v>
+        <v>19.65687093561468</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.909419790394894</v>
+        <v>3.610508355438539</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.36972958071015</v>
+        <v>18.13669810534926</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.34796464742543</v>
+        <v>22.20353165852204</v>
       </c>
       <c r="C25">
-        <v>30.75768564846764</v>
+        <v>16.16873454922522</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.74230646519086</v>
+        <v>17.77649002815375</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>1.956124715192274</v>
+        <v>3.62120359135831</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.33717622057116</v>
+        <v>18.15667447208433</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91846350703119</v>
+        <v>34.46235564657989</v>
       </c>
       <c r="C2">
-        <v>14.9376749583435</v>
+        <v>27.60204155252944</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.4550868695369</v>
+        <v>31.06455290265115</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.629624543719184</v>
+        <v>1.988554468636822</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.1777315890429</v>
+        <v>13.3753598696811</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01735535115251</v>
+        <v>31.75019306899975</v>
       </c>
       <c r="C3">
-        <v>14.05222205956468</v>
+        <v>25.4062266382903</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.5133573386915</v>
+        <v>28.53301143879692</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.635678044690552</v>
+        <v>2.010023728482044</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.19586449334508</v>
+        <v>13.42874316195057</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.45140641590864</v>
+        <v>30.03496449697606</v>
       </c>
       <c r="C4">
-        <v>13.48445925691748</v>
+        <v>24.01981493658736</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.91211500379413</v>
+        <v>26.94464520228229</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.639567762208798</v>
+        <v>2.02311927558964</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.20887109872193</v>
+        <v>13.47239738988376</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.21797740009319</v>
+        <v>29.32212277458773</v>
       </c>
       <c r="C5">
-        <v>13.24725046560427</v>
+        <v>23.44405242504612</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.66158620008865</v>
+        <v>26.28708785295886</v>
       </c>
       <c r="F5">
-        <v>15.00819731993643</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.641196585913178</v>
+        <v>2.028453588393397</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.21463764266039</v>
+        <v>13.49259468439973</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.17905967776397</v>
+        <v>29.20288432182704</v>
       </c>
       <c r="C6">
-        <v>13.20751662614565</v>
+        <v>23.34776505198707</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.61966178064999</v>
+        <v>26.1772349258936</v>
       </c>
       <c r="F6">
-        <v>14.96433081551586</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.641469700022393</v>
+        <v>2.029339718543137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.2156231956182</v>
+        <v>13.49608532759229</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.44826910759197</v>
+        <v>30.02540858955405</v>
       </c>
       <c r="C7">
-        <v>13.48128350437767</v>
+        <v>24.01209510442789</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.90875822944741</v>
+        <v>26.93582086344085</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.639589551667163</v>
+        <v>2.023191201717257</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.20894698673534</v>
+        <v>13.47266042065989</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61060690338662</v>
+        <v>33.53669575066917</v>
       </c>
       <c r="C8">
-        <v>14.63748730653015</v>
+        <v>26.85205848550252</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.13530170532846</v>
+        <v>30.1975741525457</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.631676080358685</v>
+        <v>1.99598804875881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.18359224130453</v>
+        <v>13.39129323182372</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.77479932307783</v>
+        <v>40.10260017688416</v>
       </c>
       <c r="C9">
-        <v>16.70624258055679</v>
+        <v>32.18729523644285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.42966497513565</v>
+        <v>36.42635222368766</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.617516841641076</v>
+        <v>1.940816236674988</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.14894610506398</v>
+        <v>13.3366369107391</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.2779365995826</v>
+        <v>44.88051551688479</v>
       </c>
       <c r="C10">
-        <v>18.09762428175459</v>
+        <v>36.0981896215721</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.10457653876821</v>
+        <v>41.10291085968566</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847366</v>
       </c>
       <c r="G10">
-        <v>3.607925082908879</v>
+        <v>1.8969507462784</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.13297830831772</v>
+        <v>13.39531224054707</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.94011825281613</v>
+        <v>47.09772403978248</v>
       </c>
       <c r="C11">
-        <v>18.70166202549446</v>
+        <v>37.92366822731704</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.82582255864779</v>
+        <v>43.32741741106781</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232862</v>
       </c>
       <c r="G11">
-        <v>3.603733835850118</v>
+        <v>1.875469297788549</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.127838811344</v>
+        <v>13.45542236547943</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.18757663087733</v>
+        <v>47.95085038963629</v>
       </c>
       <c r="C12">
-        <v>18.92617935517882</v>
+        <v>38.62814198010057</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.09313844167677</v>
+        <v>44.19421873547182</v>
       </c>
       <c r="F12">
-        <v>21.6568656903351</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.602171161565135</v>
+        <v>1.867006352003484</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.12620345314721</v>
+        <v>13.48453557382183</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.13443130556133</v>
+        <v>47.76635829930949</v>
       </c>
       <c r="C13">
-        <v>18.87801396228673</v>
+        <v>38.47569343977351</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.0358246087094</v>
+        <v>44.006223150118</v>
       </c>
       <c r="F13">
-        <v>21.60004134736749</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>3.602506628169308</v>
+        <v>1.868845939100615</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.1265417450479</v>
+        <v>13.47795082999894</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.96054382624261</v>
+        <v>47.16758604023636</v>
       </c>
       <c r="C14">
-        <v>18.72021804320799</v>
+        <v>37.98131190383368</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.8479308641777</v>
+        <v>43.3981602866607</v>
       </c>
       <c r="F14">
-        <v>21.41366180504534</v>
+        <v>39.19167637503949</v>
       </c>
       <c r="G14">
-        <v>3.60360478513743</v>
+        <v>1.874780446225535</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.12769800840678</v>
+        <v>13.45767891581202</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.85359845468544</v>
+        <v>46.80285576971547</v>
       </c>
       <c r="C15">
-        <v>18.62301255034317</v>
+        <v>37.68045714968289</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.7320859737739</v>
+        <v>43.0292885611451</v>
       </c>
       <c r="F15">
-        <v>21.29868154950791</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.604280614834169</v>
+        <v>1.878368597656765</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.1284468965429</v>
+        <v>13.44614627709017</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.23420992984627</v>
+        <v>44.73703977462876</v>
       </c>
       <c r="C16">
-        <v>18.05756161916133</v>
+        <v>35.98031517186854</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.05662671023068</v>
+        <v>40.96026961577846</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028805</v>
       </c>
       <c r="G16">
-        <v>3.608202429273535</v>
+        <v>1.898315700555908</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.13335739232222</v>
+        <v>13.39217418217957</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.84855805986709</v>
+        <v>43.48511287570279</v>
       </c>
       <c r="C17">
-        <v>17.70322218638001</v>
+        <v>34.95299295265001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.6318675221266</v>
+        <v>39.72184733720931</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.61065220949227</v>
+        <v>1.910098614298644</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.13691772699663</v>
+        <v>13.36853686892296</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.62471720574018</v>
+        <v>42.76858236304776</v>
       </c>
       <c r="C18">
-        <v>17.49669696214199</v>
+        <v>34.36595592284738</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.38372558959297</v>
+        <v>39.01784803596394</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.6120774737588</v>
+        <v>1.91674070736503</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.13916516482735</v>
+        <v>13.35796724436782</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.54858714657355</v>
+        <v>42.52641580543016</v>
       </c>
       <c r="C19">
-        <v>17.42630631587686</v>
+        <v>34.16770315067696</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.2990495214094</v>
+        <v>38.7806705494927</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>3.612562837442619</v>
+        <v>1.918968957290099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.13996023161808</v>
+        <v>13.35487087100014</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88982230921167</v>
+        <v>43.61797362823904</v>
       </c>
       <c r="C20">
-        <v>17.74122408391776</v>
+        <v>35.06191654654382</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.67748009911441</v>
+        <v>39.85275954001229</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>3.610389750031298</v>
+        <v>1.90885892114566</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.13651802381442</v>
+        <v>13.37073072133085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.01170959201154</v>
+        <v>47.34301751126041</v>
       </c>
       <c r="C21">
-        <v>18.76668143143275</v>
+        <v>38.12609694071725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.90327697741647</v>
+        <v>43.57598901342372</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329778</v>
       </c>
       <c r="G21">
-        <v>3.603281568279502</v>
+        <v>1.873047389606498</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.12734990605808</v>
+        <v>13.46344513701271</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.72565179819505</v>
+        <v>49.86284863743614</v>
       </c>
       <c r="C22">
-        <v>19.41989667140476</v>
+        <v>40.21159143364903</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.67059516751293</v>
+        <v>46.16148159109994</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.598778396662258</v>
+        <v>1.847630058185282</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.12317246442178</v>
+        <v>13.56237475322285</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.34642615550571</v>
+        <v>48.50669031787846</v>
       </c>
       <c r="C23">
-        <v>19.06997500409409</v>
+        <v>39.08779435041664</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.26414168747459</v>
+        <v>44.76249719428413</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038417</v>
       </c>
       <c r="G23">
-        <v>3.601168886836671</v>
+        <v>1.861432284404519</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.12523422879307</v>
+        <v>13.50534901855419</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.87117334464579</v>
+        <v>43.55789774567186</v>
       </c>
       <c r="C24">
-        <v>17.72405217609973</v>
+        <v>35.01266146784285</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.65687093561468</v>
+        <v>39.79354996087726</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575582</v>
       </c>
       <c r="G24">
-        <v>3.610508355438539</v>
+        <v>1.909419790394904</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.13669810534926</v>
+        <v>13.3697295807102</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.20353165852204</v>
+        <v>38.34796464742536</v>
       </c>
       <c r="C25">
-        <v>16.16873454922522</v>
+        <v>30.75768564846739</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.77649002815375</v>
+        <v>34.74230646519094</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>3.62120359135831</v>
+        <v>1.956124715192406</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.15667447208433</v>
+        <v>13.33717622057115</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.46235564657989</v>
+        <v>13.21888947808733</v>
       </c>
       <c r="C2">
-        <v>27.60204155252944</v>
+        <v>9.148687272497256</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>31.06455290265115</v>
+        <v>28.21366595912454</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>1.988554468636822</v>
+        <v>28.40185174476629</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.458333511100583</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.618761695987909</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.2699439176619</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.45449320215411</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.23748714003568</v>
       </c>
       <c r="N2">
-        <v>13.3753598696811</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.68728345213712</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.75019306899975</v>
+        <v>12.34559179291352</v>
       </c>
       <c r="C3">
-        <v>25.4062266382903</v>
+        <v>8.564469868069075</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.53301143879692</v>
+        <v>26.34472502459244</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.010023728482044</v>
+        <v>27.70669695370652</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.22056518867392</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.779447459452341</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.2331900850231</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.43526853197001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.48066808198653</v>
       </c>
       <c r="N3">
-        <v>13.42874316195057</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.83935181526205</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.03496449697606</v>
+        <v>11.77463857204742</v>
       </c>
       <c r="C4">
-        <v>24.01981493658736</v>
+        <v>8.189473222262366</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.94464520228229</v>
+        <v>25.13088557130743</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.02311927558964</v>
+        <v>27.27969715696966</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.069524846383745</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.882221785106803</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.21288083802414</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.42622293951482</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.98951906652294</v>
       </c>
       <c r="N4">
-        <v>13.47239738988376</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.93375331481854</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.32212277458773</v>
+        <v>11.52685733960785</v>
       </c>
       <c r="C5">
-        <v>23.44405242504612</v>
+        <v>8.039602459871965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.28708785295886</v>
+        <v>24.61924732691535</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.028453588393397</v>
+        <v>27.08558523298714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.006485484619084</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.928193691965745</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.20166513319635</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.41569558429189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.78118399214159</v>
       </c>
       <c r="N5">
-        <v>13.49259468439973</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.97156015873806</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.20288432182704</v>
+        <v>11.4774336948624</v>
       </c>
       <c r="C6">
-        <v>23.34776505198707</v>
+        <v>8.023075950458873</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.1772349258936</v>
+        <v>24.5329700040801</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.029339718543137</v>
+        <v>27.02866674807851</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.995698227946642</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.939808305046902</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.19557280088175</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.40482181045799</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.74428882191887</v>
       </c>
       <c r="N6">
-        <v>13.49608532759229</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.9767188806658</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.02540858955405</v>
+        <v>11.75067428392937</v>
       </c>
       <c r="C7">
-        <v>24.01209510442789</v>
+        <v>8.210426002245466</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.93582086344085</v>
+        <v>25.12322767100302</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.023191201717257</v>
+        <v>27.21018227266019</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.068031445828518</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.89323037435845</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.20111812545347</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.40108362750074</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.98165174866688</v>
       </c>
       <c r="N7">
-        <v>13.47266042065989</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.93122624231862</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.53669575066917</v>
+        <v>12.89972972834286</v>
       </c>
       <c r="C8">
-        <v>26.85205848550252</v>
+        <v>8.978712738797819</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.1975741525457</v>
+        <v>27.581940600936</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>1.99598804875881</v>
+        <v>28.07646995337808</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.376569134632406</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.686753934139764</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.24159161564938</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.41442478198947</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.97576940267674</v>
       </c>
       <c r="N8">
-        <v>13.39129323182372</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.73580107151512</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.10260017688416</v>
+        <v>14.91205247318888</v>
       </c>
       <c r="C9">
-        <v>32.18729523644285</v>
+        <v>10.31977262603857</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.42635222368766</v>
+        <v>31.88209804503983</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>1.940816236674988</v>
+        <v>29.88334761591804</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.94365952348296</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.654286852139454</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.36033197679083</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.50842975318631</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.72320640496621</v>
       </c>
       <c r="N9">
-        <v>13.3366369107391</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.36492631994635</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.88051551688479</v>
+        <v>16.17516792113765</v>
       </c>
       <c r="C10">
-        <v>36.0981896215721</v>
+        <v>11.16008572334624</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>41.10291085968566</v>
+        <v>33.84714229353244</v>
       </c>
       <c r="F10">
-        <v>37.72874519847366</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>1.8969507462784</v>
+        <v>30.84497388078908</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.301878126092816</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.90978997973153</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.39625749455128</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.48774801193306</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.82382282033805</v>
       </c>
       <c r="N10">
-        <v>13.39531224054707</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.08902408739418</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.09772403978248</v>
+        <v>16.32738545922534</v>
       </c>
       <c r="C11">
-        <v>37.92366822731704</v>
+        <v>10.90964334685155</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43.32741741106781</v>
+        <v>27.18207987237584</v>
       </c>
       <c r="F11">
-        <v>39.14805722232862</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.875469297788549</v>
+        <v>28.39393715490085</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.766635742312189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.955714248827072</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.896230662236301</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.64388430997038</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.84014283225323</v>
       </c>
       <c r="N11">
-        <v>13.45542236547943</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.94166569559194</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.95085038963629</v>
+        <v>16.22586323287459</v>
       </c>
       <c r="C12">
-        <v>38.62814198010057</v>
+        <v>10.50906537760554</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>44.19421873547182</v>
+        <v>21.13288116032132</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.867006352003484</v>
+        <v>26.20384585552203</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.724221533570519</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.944999591855198</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.488103763368709</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.99065926443797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.6403023730495</v>
       </c>
       <c r="N12">
-        <v>13.48453557382183</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.91362547864012</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.76635829930949</v>
+        <v>15.89672788813648</v>
       </c>
       <c r="C13">
-        <v>38.47569343977351</v>
+        <v>9.985026108550251</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>44.006223150118</v>
+        <v>15.01569306199732</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>1.868845939100615</v>
+        <v>23.96251328804266</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.87009141776567</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.894411325933132</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.109618063846925</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.4108246332328</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.25121273202812</v>
       </c>
       <c r="N13">
-        <v>13.47795082999894</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.96625216382721</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.16758604023636</v>
+        <v>15.55475773141073</v>
       </c>
       <c r="C14">
-        <v>37.98131190383368</v>
+        <v>9.563474682454684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>43.3981602866607</v>
+        <v>10.6664388171801</v>
       </c>
       <c r="F14">
-        <v>39.19167637503949</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>1.874780446225535</v>
+        <v>22.35564869558961</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.738672937385491</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.843059173640333</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.859166721067846</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.0413056265312</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.88828284636274</v>
       </c>
       <c r="N14">
-        <v>13.45767891581202</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.04124650054118</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.80285576971547</v>
+        <v>15.41464383622755</v>
       </c>
       <c r="C15">
-        <v>37.68045714968289</v>
+        <v>9.437737834890919</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>43.0292885611451</v>
+        <v>9.587158293016538</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>1.878368597656765</v>
+        <v>21.93488233483884</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.938194496106381</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.822567207953838</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.801167810608517</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.9589777369205</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.75568452372774</v>
       </c>
       <c r="N15">
-        <v>13.44614627709017</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.07220937471136</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.73703977462876</v>
+        <v>14.93048848041325</v>
       </c>
       <c r="C16">
-        <v>35.98031517186854</v>
+        <v>9.168866310127859</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.96026961577846</v>
+        <v>9.481679952207594</v>
       </c>
       <c r="F16">
-        <v>37.63463543028805</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.898315700555908</v>
+        <v>21.88022630983605</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.666071677465835</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.727617568961096</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.85766356009233</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.07768988196288</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.35341607387164</v>
       </c>
       <c r="N16">
-        <v>13.39217418217957</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.16466211712203</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.48511287570279</v>
+        <v>14.74096478952206</v>
       </c>
       <c r="C17">
-        <v>34.95299295265001</v>
+        <v>9.193939817045486</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.72184733720931</v>
+        <v>11.81453417636688</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>1.910098614298644</v>
+        <v>22.69889964186271</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.944487749350684</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.681437709997931</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.031806542359137</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.35877577619024</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.23998720388946</v>
       </c>
       <c r="N17">
-        <v>13.36853686892296</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.19650878490917</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.76858236304776</v>
+        <v>14.80764437891443</v>
       </c>
       <c r="C18">
-        <v>34.36595592284738</v>
+        <v>9.472755780563888</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>39.01784803596394</v>
+        <v>16.64003224081024</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>1.91674070736503</v>
+        <v>24.42243271128525</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.820466979548488</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.671960264912179</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.34052443819915</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.84358221907054</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.37590748848619</v>
       </c>
       <c r="N18">
-        <v>13.35796724436782</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.19439266303654</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.52641580543016</v>
+        <v>15.04730753328827</v>
       </c>
       <c r="C19">
-        <v>34.16770315067696</v>
+        <v>9.976030702184174</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.7806705494927</v>
+        <v>23.07979269189842</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>1.918968957290099</v>
+        <v>26.66286682113545</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.682147010767213</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.707820991873096</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.727629078488349</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.44572160282087</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.6987699586383</v>
       </c>
       <c r="N19">
-        <v>13.35487087100014</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.1882074326891</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.61797362823904</v>
+        <v>15.80242229812412</v>
       </c>
       <c r="C20">
-        <v>35.06191654654382</v>
+        <v>10.99582978913544</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.85275954001229</v>
+        <v>33.30127430104402</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>1.90885892114566</v>
+        <v>30.39322439660403</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.204845119628204</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.85282091038796</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.34876172025951</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.4125780499915</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.5280178739784</v>
       </c>
       <c r="N20">
-        <v>13.37073072133085</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.15400266679869</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.34301751126041</v>
+        <v>16.80078600193536</v>
       </c>
       <c r="C21">
-        <v>38.12609694071725</v>
+        <v>11.72038314282004</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>43.57598901342372</v>
+        <v>36.08539221588159</v>
       </c>
       <c r="F21">
-        <v>39.30090300329778</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>1.873047389606498</v>
+        <v>31.67739939666336</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.530172555805767</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.0574715516422</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.47939928378353</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.56535958760306</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.41880498372669</v>
       </c>
       <c r="N21">
-        <v>13.46344513701271</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.95393542528966</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.86284863743614</v>
+        <v>17.4206744089178</v>
       </c>
       <c r="C22">
-        <v>40.21159143364903</v>
+        <v>12.12005958453257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>46.16148159109994</v>
+        <v>37.3944552075553</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.847630058185282</v>
+        <v>32.41839347270462</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.720871689818167</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.181497814652507</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.55178091510911</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.65198338252981</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.95529255480598</v>
       </c>
       <c r="N22">
-        <v>13.56237475322285</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.82328655499743</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.50669031787846</v>
+        <v>17.11013264453392</v>
       </c>
       <c r="C23">
-        <v>39.08779435041664</v>
+        <v>11.88837490570064</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>44.76249719428413</v>
+        <v>36.70163037567293</v>
       </c>
       <c r="F23">
-        <v>40.01414225038417</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>1.861432284404519</v>
+        <v>32.09043498550345</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.620041136986892</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.111857417941077</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.52583310025378</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.63371141806441</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.6755363897325</v>
       </c>
       <c r="N23">
-        <v>13.50534901855419</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.8955265040085</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.55789774567186</v>
+        <v>15.84895466083574</v>
       </c>
       <c r="C24">
-        <v>35.01266146784285</v>
+        <v>11.01304387250513</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.79354996087726</v>
+        <v>33.96529646859907</v>
       </c>
       <c r="F24">
-        <v>36.85121910575582</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>1.909419790394904</v>
+        <v>30.73927552396898</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.230059678456804</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.850101891996515</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.41326322305279</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.52856682236423</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.56320643759057</v>
       </c>
       <c r="N24">
-        <v>13.3697295807102</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.16587260250495</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.34796464742536</v>
+        <v>14.36560102450955</v>
       </c>
       <c r="C25">
-        <v>30.75768564846739</v>
+        <v>10.00536226115283</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.74230646519094</v>
+        <v>30.77291795334995</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>1.956124715192406</v>
+        <v>29.28420607711359</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.793226313403603</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.560873182515035</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.3056237389514</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.4359118883556</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.26517399458283</v>
       </c>
       <c r="N25">
-        <v>13.33717622057115</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.46003108938976</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21888947808733</v>
+        <v>12.88733887988399</v>
       </c>
       <c r="C2">
-        <v>9.148687272497256</v>
+        <v>9.464263786494278</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>28.21366595912454</v>
+        <v>28.24569520735139</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>28.40185174476629</v>
+        <v>26.32058836840874</v>
       </c>
       <c r="H2">
-        <v>2.458333511100583</v>
+        <v>2.483514086865861</v>
       </c>
       <c r="I2">
-        <v>2.618761695987909</v>
+        <v>2.528597606004281</v>
       </c>
       <c r="J2">
-        <v>10.2699439176619</v>
+        <v>10.29242896333946</v>
       </c>
       <c r="K2">
-        <v>15.45449320215411</v>
+        <v>14.68614499272609</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.51135013029309</v>
       </c>
       <c r="M2">
-        <v>12.23748714003568</v>
+        <v>9.252170652483839</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.16408898025352</v>
       </c>
       <c r="P2">
-        <v>12.68728345213712</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.53370525535994</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.34559179291352</v>
+        <v>12.0809408543727</v>
       </c>
       <c r="C3">
-        <v>8.564469868069075</v>
+        <v>8.807809802227233</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.34472502459244</v>
+        <v>26.38839347483676</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>27.70669695370652</v>
+        <v>25.82889321464706</v>
       </c>
       <c r="H3">
-        <v>2.22056518867392</v>
+        <v>2.254743866045622</v>
       </c>
       <c r="I3">
-        <v>2.779447459452341</v>
+        <v>2.667153079228624</v>
       </c>
       <c r="J3">
-        <v>10.2331900850231</v>
+        <v>10.24866004011232</v>
       </c>
       <c r="K3">
-        <v>15.43526853197001</v>
+        <v>14.7246340670207</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.6374929464769</v>
       </c>
       <c r="M3">
-        <v>11.48066808198653</v>
+        <v>9.195432522712089</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.42913299848289</v>
       </c>
       <c r="P3">
-        <v>12.83935181526205</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.67621455368777</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.77463857204742</v>
+        <v>11.55369684062336</v>
       </c>
       <c r="C4">
-        <v>8.189473222262366</v>
+        <v>8.385283518935323</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.13088557130743</v>
+        <v>25.1820027678553</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>27.27969715696966</v>
+        <v>25.53033496665077</v>
       </c>
       <c r="H4">
-        <v>2.069524846383745</v>
+        <v>2.109338269730189</v>
       </c>
       <c r="I4">
-        <v>2.882221785106803</v>
+        <v>2.756191434817713</v>
       </c>
       <c r="J4">
-        <v>10.21288083802414</v>
+        <v>10.2218477474724</v>
       </c>
       <c r="K4">
-        <v>15.42622293951482</v>
+        <v>14.74966424939051</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.71493387917096</v>
       </c>
       <c r="M4">
-        <v>10.98951906652294</v>
+        <v>9.178866001687796</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.95216989098837</v>
       </c>
       <c r="P4">
-        <v>12.93375331481854</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.76506023375167</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.52685733960785</v>
+        <v>11.32472962226192</v>
       </c>
       <c r="C5">
-        <v>8.039602459871965</v>
+        <v>8.215205724201432</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.61924732691535</v>
+        <v>24.67350763928095</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>27.08558523298714</v>
+        <v>25.39026419616144</v>
       </c>
       <c r="H5">
-        <v>2.006485484619084</v>
+        <v>2.048640772695374</v>
       </c>
       <c r="I5">
-        <v>2.928193691965745</v>
+        <v>2.797031781006836</v>
       </c>
       <c r="J5">
-        <v>10.20166513319635</v>
+        <v>10.20762227292184</v>
       </c>
       <c r="K5">
-        <v>15.41569558429189</v>
+        <v>14.75331119586114</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.74028824573202</v>
       </c>
       <c r="M5">
-        <v>10.78118399214159</v>
+        <v>9.172575910147856</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.74989482972721</v>
       </c>
       <c r="P5">
-        <v>12.97156015873806</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.80093176857318</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4774336948624</v>
+        <v>11.27886711997475</v>
       </c>
       <c r="C6">
-        <v>8.023075950458873</v>
+        <v>8.195234708316764</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.5329700040801</v>
+        <v>24.58777794716305</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>27.02866674807851</v>
+        <v>25.34353185442594</v>
       </c>
       <c r="H6">
-        <v>1.995698227946642</v>
+        <v>2.038263746533114</v>
       </c>
       <c r="I6">
-        <v>2.939808305046902</v>
+        <v>2.808461733160829</v>
       </c>
       <c r="J6">
-        <v>10.19557280088175</v>
+        <v>10.2012157281175</v>
       </c>
       <c r="K6">
-        <v>15.40482181045799</v>
+        <v>14.74553911961796</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.73693136206138</v>
       </c>
       <c r="M6">
-        <v>10.74428882191887</v>
+        <v>9.166745342556656</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.71411493826196</v>
       </c>
       <c r="P6">
-        <v>12.9767188806658</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.80608599532287</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.75067428392937</v>
+        <v>11.52589691384458</v>
       </c>
       <c r="C7">
-        <v>8.210426002245466</v>
+        <v>8.392678626694796</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.12322767100302</v>
+        <v>25.17383242000333</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>27.21018227266019</v>
+        <v>25.53030266167793</v>
       </c>
       <c r="H7">
-        <v>2.068031445828518</v>
+        <v>2.107458544462256</v>
       </c>
       <c r="I7">
-        <v>2.89323037435845</v>
+        <v>2.769613245797546</v>
       </c>
       <c r="J7">
-        <v>10.20111812545347</v>
+        <v>10.16816660454595</v>
       </c>
       <c r="K7">
-        <v>15.40108362750074</v>
+        <v>14.71656757735117</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.68599759104355</v>
       </c>
       <c r="M7">
-        <v>10.98165174866688</v>
+        <v>9.157957412107503</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.93716650506683</v>
       </c>
       <c r="P7">
-        <v>12.93122624231862</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.76237294462923</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.89972972834286</v>
+        <v>12.57620302403276</v>
       </c>
       <c r="C8">
-        <v>8.978712738797819</v>
+        <v>9.229485096337779</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>27.581940600936</v>
+        <v>27.61614182967763</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>28.07646995337808</v>
+        <v>26.28254875736828</v>
       </c>
       <c r="H8">
-        <v>2.376569134632406</v>
+        <v>2.403442716463926</v>
       </c>
       <c r="I8">
-        <v>2.686753934139764</v>
+        <v>2.593487424362719</v>
       </c>
       <c r="J8">
-        <v>10.24159161564938</v>
+        <v>10.12467948517465</v>
       </c>
       <c r="K8">
-        <v>15.41442478198947</v>
+        <v>14.63567687325095</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.5026078831674</v>
       </c>
       <c r="M8">
-        <v>11.97576940267674</v>
+        <v>9.184038260968078</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.88700261913811</v>
       </c>
       <c r="P8">
-        <v>12.73580107151512</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.57741205048355</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.91205247318888</v>
+        <v>14.43231135721636</v>
       </c>
       <c r="C9">
-        <v>10.31977262603857</v>
+        <v>10.7286429558317</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>31.88209804503983</v>
+        <v>31.88799138644238</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>29.88334761591804</v>
+        <v>27.65040743199753</v>
       </c>
       <c r="H9">
-        <v>2.94365952348296</v>
+        <v>2.948294280070697</v>
       </c>
       <c r="I9">
-        <v>2.654286852139454</v>
+        <v>2.701496258567663</v>
       </c>
       <c r="J9">
-        <v>10.36033197679083</v>
+        <v>10.21161382247786</v>
       </c>
       <c r="K9">
-        <v>15.50842975318631</v>
+        <v>14.56699596848108</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.20807356061605</v>
       </c>
       <c r="M9">
-        <v>13.72320640496621</v>
+        <v>9.432049988312652</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.5803284708018</v>
       </c>
       <c r="P9">
-        <v>12.36492631994635</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.23162638057094</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.17516792113765</v>
+        <v>15.5786668717436</v>
       </c>
       <c r="C10">
-        <v>11.16008572334624</v>
+        <v>11.60176876216244</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>33.84714229353244</v>
+        <v>33.83070730177896</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>30.84497388078908</v>
+        <v>28.69894653021539</v>
       </c>
       <c r="H10">
-        <v>3.301878126092816</v>
+        <v>3.289047094578152</v>
       </c>
       <c r="I10">
-        <v>2.90978997973153</v>
+        <v>2.920163037911936</v>
       </c>
       <c r="J10">
-        <v>10.39625749455128</v>
+        <v>9.993290565427646</v>
       </c>
       <c r="K10">
-        <v>15.48774801193306</v>
+        <v>14.38357052498748</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.89158456763943</v>
       </c>
       <c r="M10">
-        <v>14.82382282033805</v>
+        <v>9.577640236333893</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.61323009597275</v>
       </c>
       <c r="P10">
-        <v>12.08902408739418</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.9813011360659</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32738545922534</v>
+        <v>15.71847048210332</v>
       </c>
       <c r="C11">
-        <v>10.90964334685155</v>
+        <v>11.17721677547418</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.18207987237584</v>
+        <v>27.15791174374823</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>28.39393715490085</v>
+        <v>27.15807342711708</v>
       </c>
       <c r="H11">
-        <v>3.766635742312189</v>
+        <v>3.751140790395848</v>
       </c>
       <c r="I11">
-        <v>2.955714248827072</v>
+        <v>2.957679321635434</v>
       </c>
       <c r="J11">
-        <v>9.896230662236301</v>
+        <v>9.150759731094952</v>
       </c>
       <c r="K11">
-        <v>14.64388430997038</v>
+        <v>13.55085476754838</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.24418846186886</v>
       </c>
       <c r="M11">
-        <v>14.84014283225323</v>
+        <v>9.001102059122294</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.56492431538391</v>
       </c>
       <c r="P11">
-        <v>11.94166569559194</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.90971341225588</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.22586323287459</v>
+        <v>15.64283085404718</v>
       </c>
       <c r="C12">
-        <v>10.50906537760554</v>
+        <v>10.65888164637414</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.13288116032132</v>
+        <v>21.10685740365407</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>26.20384585552203</v>
+        <v>25.48275897415763</v>
       </c>
       <c r="H12">
-        <v>4.724221533570519</v>
+        <v>4.712151881319877</v>
       </c>
       <c r="I12">
-        <v>2.944999591855198</v>
+        <v>2.946509450382734</v>
       </c>
       <c r="J12">
-        <v>9.488103763368709</v>
+        <v>8.69631748299385</v>
       </c>
       <c r="K12">
-        <v>13.99065926443797</v>
+        <v>12.98164486612379</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.84777840319149</v>
       </c>
       <c r="M12">
-        <v>14.6403023730495</v>
+        <v>8.54189747126407</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.34430171054558</v>
       </c>
       <c r="P12">
-        <v>11.91362547864012</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.93902035610479</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89672788813648</v>
+        <v>15.38246265139369</v>
       </c>
       <c r="C13">
-        <v>9.985026108550251</v>
+        <v>10.07220945239936</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.01569306199732</v>
+        <v>14.99281671945717</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>23.96251328804266</v>
+        <v>23.34345587023416</v>
       </c>
       <c r="H13">
-        <v>5.87009141776567</v>
+        <v>5.862885473842623</v>
       </c>
       <c r="I13">
-        <v>2.894411325933132</v>
+        <v>2.904216731684446</v>
       </c>
       <c r="J13">
-        <v>9.109618063846925</v>
+        <v>8.503269271657896</v>
       </c>
       <c r="K13">
-        <v>13.4108246332328</v>
+        <v>12.56077515804498</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.58523839559035</v>
       </c>
       <c r="M13">
-        <v>14.25121273202812</v>
+        <v>8.142422227806007</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.98090247920937</v>
       </c>
       <c r="P13">
-        <v>11.96625216382721</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.02620931683801</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.55475773141073</v>
+        <v>15.1087289680518</v>
       </c>
       <c r="C14">
-        <v>9.563474682454684</v>
+        <v>9.628784811732416</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.6664388171801</v>
+        <v>10.64820448937441</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>22.35564869558961</v>
+        <v>21.63562619207561</v>
       </c>
       <c r="H14">
-        <v>6.738672937385491</v>
+        <v>6.734602207652368</v>
       </c>
       <c r="I14">
-        <v>2.843059173640333</v>
+        <v>2.862756780237817</v>
       </c>
       <c r="J14">
-        <v>8.859166721067846</v>
+        <v>8.455555066607809</v>
       </c>
       <c r="K14">
-        <v>13.0413056265312</v>
+        <v>12.32723697766211</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.45098799909027</v>
       </c>
       <c r="M14">
-        <v>13.88828284636274</v>
+        <v>7.89117993448315</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.65655848004156</v>
       </c>
       <c r="P14">
-        <v>12.04124650054118</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.10992528299297</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.41464383622755</v>
+        <v>14.99430147659564</v>
       </c>
       <c r="C15">
-        <v>9.437737834890919</v>
+        <v>9.506935905367268</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.587158293016538</v>
+        <v>9.572016674422439</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>21.93488233483884</v>
+        <v>21.12202317315812</v>
       </c>
       <c r="H15">
-        <v>6.938194496106381</v>
+        <v>6.935146624300661</v>
       </c>
       <c r="I15">
-        <v>2.822567207953838</v>
+        <v>2.847131467272825</v>
       </c>
       <c r="J15">
-        <v>8.801167810608517</v>
+        <v>8.477180199622763</v>
       </c>
       <c r="K15">
-        <v>12.9589777369205</v>
+        <v>12.28908800833126</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.43327135314334</v>
       </c>
       <c r="M15">
-        <v>13.75568452372774</v>
+        <v>7.836863216760133</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.54241008165573</v>
       </c>
       <c r="P15">
-        <v>12.07220937471136</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.13753389981467</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.93048848041325</v>
+        <v>14.58530559885875</v>
       </c>
       <c r="C16">
-        <v>9.168866310127859</v>
+        <v>9.315229142670498</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.481679952207594</v>
+        <v>9.484714953117072</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>21.88022630983605</v>
+        <v>20.52052865756815</v>
       </c>
       <c r="H16">
-        <v>6.666071677465835</v>
+        <v>6.666673569389499</v>
       </c>
       <c r="I16">
-        <v>2.727617568961096</v>
+        <v>2.771163345763324</v>
       </c>
       <c r="J16">
-        <v>8.85766356009233</v>
+        <v>8.809210643970351</v>
       </c>
       <c r="K16">
-        <v>13.07768988196288</v>
+        <v>12.49818526588213</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.60010125480458</v>
       </c>
       <c r="M16">
-        <v>13.35341607387164</v>
+        <v>7.932127879655519</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.21599197023121</v>
       </c>
       <c r="P16">
-        <v>12.16466211712203</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.18808813359279</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.74096478952206</v>
+        <v>14.41017074751246</v>
       </c>
       <c r="C17">
-        <v>9.193939817045486</v>
+        <v>9.399460276182294</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.81453417636688</v>
+        <v>11.82447171543922</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>22.69889964186271</v>
+        <v>21.04974145121231</v>
       </c>
       <c r="H17">
-        <v>5.944487749350684</v>
+        <v>5.946946213580399</v>
       </c>
       <c r="I17">
-        <v>2.681437709997931</v>
+        <v>2.733813155344928</v>
       </c>
       <c r="J17">
-        <v>9.031806542359137</v>
+        <v>9.085155553317978</v>
       </c>
       <c r="K17">
-        <v>13.35877577619024</v>
+        <v>12.77590660590192</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.8083266157975</v>
       </c>
       <c r="M17">
-        <v>13.23998720388946</v>
+        <v>8.122651425130512</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.13141533782817</v>
       </c>
       <c r="P17">
-        <v>12.19650878490917</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.19256184715913</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.80764437891443</v>
+        <v>14.44713513489561</v>
       </c>
       <c r="C18">
-        <v>9.472755780563888</v>
+        <v>9.749426289955363</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.64003224081024</v>
+        <v>16.64944415371403</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>24.42243271128525</v>
+        <v>22.52517772118005</v>
       </c>
       <c r="H18">
-        <v>4.820466979548488</v>
+        <v>4.823891867611771</v>
       </c>
       <c r="I18">
-        <v>2.671960264912179</v>
+        <v>2.724553490485032</v>
       </c>
       <c r="J18">
-        <v>9.34052443819915</v>
+        <v>9.405438495128653</v>
       </c>
       <c r="K18">
-        <v>13.84358221907054</v>
+        <v>13.18993625705945</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.11203514258549</v>
       </c>
       <c r="M18">
-        <v>13.37590748848619</v>
+        <v>8.445555325703682</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.27034256446392</v>
       </c>
       <c r="P18">
-        <v>12.19439266303654</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.16425135535339</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.04730753328827</v>
+        <v>14.62899156986445</v>
       </c>
       <c r="C19">
-        <v>9.976030702184174</v>
+        <v>10.33520218313532</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.07979269189842</v>
+        <v>23.08519893689411</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>26.66286682113545</v>
+        <v>24.51856975483467</v>
       </c>
       <c r="H19">
-        <v>3.682147010767213</v>
+        <v>3.685170540112414</v>
       </c>
       <c r="I19">
-        <v>2.707820991873096</v>
+        <v>2.755876694200926</v>
       </c>
       <c r="J19">
-        <v>9.727629078488349</v>
+        <v>9.752810828534479</v>
       </c>
       <c r="K19">
-        <v>14.44572160282087</v>
+        <v>13.67794652970752</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.46739533742424</v>
       </c>
       <c r="M19">
-        <v>13.6987699586383</v>
+        <v>8.843497682743653</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.58051961202988</v>
       </c>
       <c r="P19">
-        <v>12.1882074326891</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.1286155667191</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.80242229812412</v>
+        <v>15.25278366819048</v>
       </c>
       <c r="C20">
-        <v>10.99582978913544</v>
+        <v>11.46411423882155</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>33.30127430104402</v>
+        <v>33.2926570766945</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>30.39322439660403</v>
+        <v>28.0162162523727</v>
       </c>
       <c r="H20">
-        <v>3.204845119628204</v>
+        <v>3.1981004761449</v>
       </c>
       <c r="I20">
-        <v>2.85282091038796</v>
+        <v>2.878567162579018</v>
       </c>
       <c r="J20">
-        <v>10.34876172025951</v>
+        <v>10.15845034396626</v>
       </c>
       <c r="K20">
-        <v>15.4125780499915</v>
+        <v>14.39583953329023</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.94877868061501</v>
       </c>
       <c r="M20">
-        <v>14.5280178739784</v>
+        <v>9.50573171563345</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.35655389722658</v>
       </c>
       <c r="P20">
-        <v>12.15400266679869</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.04489954340753</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.80078600193536</v>
+        <v>16.07885440132129</v>
       </c>
       <c r="C21">
-        <v>11.72038314282004</v>
+        <v>12.04457394481404</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>36.08539221588159</v>
+        <v>36.04981010672433</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>31.67739939666336</v>
+        <v>30.46025248088706</v>
       </c>
       <c r="H21">
-        <v>3.530172555805767</v>
+        <v>3.502435267594178</v>
       </c>
       <c r="I21">
-        <v>3.0574715516422</v>
+        <v>3.042875912011525</v>
       </c>
       <c r="J21">
-        <v>10.47939928378353</v>
+        <v>9.375278236846329</v>
       </c>
       <c r="K21">
-        <v>15.56535958760306</v>
+        <v>14.2059492037563</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.6805705165838</v>
       </c>
       <c r="M21">
-        <v>15.41880498372669</v>
+        <v>9.589686421450919</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.0862452619494</v>
       </c>
       <c r="P21">
-        <v>11.95393542528966</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.85063241584101</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4206744089178</v>
+        <v>16.58945587999991</v>
       </c>
       <c r="C22">
-        <v>12.12005958453257</v>
+        <v>12.33784128669172</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>37.3944552075553</v>
+        <v>37.34156018829417</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.41839347270462</v>
+        <v>32.06150482634347</v>
       </c>
       <c r="H22">
-        <v>3.720871689818167</v>
+        <v>3.679822932203031</v>
       </c>
       <c r="I22">
-        <v>3.181497814652507</v>
+        <v>3.140009986006911</v>
       </c>
       <c r="J22">
-        <v>10.55178091510911</v>
+        <v>8.858295062315428</v>
       </c>
       <c r="K22">
-        <v>15.65198338252981</v>
+        <v>14.05756573060445</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.49259952951546</v>
       </c>
       <c r="M22">
-        <v>15.95529255480598</v>
+        <v>9.6316778041968</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.5155855611662</v>
       </c>
       <c r="P22">
-        <v>11.82328655499743</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.72837773386106</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.11013264453392</v>
+        <v>16.34588166585621</v>
       </c>
       <c r="C23">
-        <v>11.88837490570064</v>
+        <v>12.18785511805982</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>36.70163037567293</v>
+        <v>36.65891613991791</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>32.09043498550345</v>
+        <v>31.11169898332743</v>
       </c>
       <c r="H23">
-        <v>3.620041136986892</v>
+        <v>3.586820613400259</v>
       </c>
       <c r="I23">
-        <v>3.111857417941077</v>
+        <v>3.084383364816521</v>
       </c>
       <c r="J23">
-        <v>10.52583310025378</v>
+        <v>9.224732610926013</v>
       </c>
       <c r="K23">
-        <v>15.63371141806441</v>
+        <v>14.18682237673052</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.62514328018358</v>
       </c>
       <c r="M23">
-        <v>15.6755363897325</v>
+        <v>9.652438641249622</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.3070034412092</v>
       </c>
       <c r="P23">
-        <v>11.8955265040085</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.79392663879825</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84895466083574</v>
+        <v>15.29295057307109</v>
       </c>
       <c r="C24">
-        <v>11.01304387250513</v>
+        <v>11.49094924068805</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>33.96529646859907</v>
+        <v>33.95624439102271</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>30.73927552396898</v>
+        <v>28.32364163296042</v>
       </c>
       <c r="H24">
-        <v>3.230059678456804</v>
+        <v>3.222967596634336</v>
       </c>
       <c r="I24">
-        <v>2.850101891996515</v>
+        <v>2.872971152643077</v>
       </c>
       <c r="J24">
-        <v>10.41326322305279</v>
+        <v>10.22174043253839</v>
       </c>
       <c r="K24">
-        <v>15.52856682236423</v>
+        <v>14.49558153096923</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.02215762245391</v>
       </c>
       <c r="M24">
-        <v>14.56320643759057</v>
+        <v>9.585142034793016</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.39096453399199</v>
       </c>
       <c r="P24">
-        <v>12.16587260250495</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.04932500278045</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.36560102450955</v>
+        <v>13.93371424951112</v>
       </c>
       <c r="C25">
-        <v>10.00536226115283</v>
+        <v>10.38936521172624</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>30.77291795334995</v>
+        <v>30.78721782281951</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>29.28420607711359</v>
+        <v>27.08207165936281</v>
       </c>
       <c r="H25">
-        <v>2.793226313403603</v>
+        <v>2.804487363066214</v>
       </c>
       <c r="I25">
-        <v>2.560873182515035</v>
+        <v>2.624368565321091</v>
       </c>
       <c r="J25">
-        <v>10.3056237389514</v>
+        <v>10.22767222003742</v>
       </c>
       <c r="K25">
-        <v>15.4359118883556</v>
+        <v>14.5586042444335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.2687234396708</v>
       </c>
       <c r="M25">
-        <v>13.26517399458283</v>
+        <v>9.329704293699583</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.14581895231346</v>
       </c>
       <c r="P25">
-        <v>12.46003108938976</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.32266478733192</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
